--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Final_Parameters/Avance Technologies Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Avance Technologies Ltd/Pruned_Excel/Final_Parameters/Avance Technologies Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
   <si>
     <t>Balance Sheet of Avance Technologies(in Rs. Cr.)</t>
   </si>
@@ -347,6 +347,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -525,6 +528,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -3396,13 +3402,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -3463,19 +3469,22 @@
       <c r="T1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>104</v>
@@ -3484,51 +3493,54 @@
         <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
         <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>177</v>
+      </c>
+      <c r="U2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>25.73</v>
@@ -3554,22 +3566,22 @@
       <c r="K3">
         <v>0.21</v>
       </c>
-      <c r="L3">
-        <v>0.21</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>0.21</v>
       </c>
       <c r="O3">
         <v>0.21</v>
       </c>
       <c r="P3">
+        <v>0.21</v>
+      </c>
+      <c r="Q3">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>19.94</v>
@@ -3595,22 +3607,22 @@
       <c r="K4">
         <v>0.13</v>
       </c>
-      <c r="L4">
-        <v>0.13</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>0.13</v>
       </c>
       <c r="O4">
         <v>0.13</v>
       </c>
       <c r="P4">
+        <v>0.13</v>
+      </c>
+      <c r="Q4">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>18.11</v>
@@ -3633,22 +3645,22 @@
       <c r="K5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L5">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>0.07000000000000001</v>
       </c>
       <c r="O5">
         <v>0.07000000000000001</v>
       </c>
       <c r="P5">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q5">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>19.21</v>
@@ -3674,22 +3686,22 @@
       <c r="K6">
         <v>0.1</v>
       </c>
-      <c r="L6">
-        <v>0.1</v>
-      </c>
-      <c r="N6">
+      <c r="M6">
         <v>0.1</v>
       </c>
       <c r="O6">
         <v>0.1</v>
       </c>
       <c r="P6">
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>24.79</v>
@@ -3719,19 +3731,19 @@
         <v>0.11</v>
       </c>
       <c r="L7">
-        <v>-3.74</v>
-      </c>
-      <c r="N7">
+        <v>-3.85</v>
+      </c>
+      <c r="M7">
         <v>-3.74</v>
       </c>
       <c r="O7">
         <v>-3.74</v>
       </c>
       <c r="P7">
+        <v>-3.74</v>
+      </c>
+      <c r="Q7">
         <v>64.04000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>-0.06</v>
       </c>
       <c r="R7">
         <v>-0.06</v>
@@ -3742,10 +3754,13 @@
       <c r="T7">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>32.16</v>
@@ -3777,22 +3792,22 @@
       <c r="K8">
         <v>0.3</v>
       </c>
-      <c r="L8">
-        <v>0.3</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>0.3</v>
       </c>
       <c r="O8">
         <v>0.3</v>
       </c>
       <c r="P8">
+        <v>0.3</v>
+      </c>
+      <c r="Q8">
         <v>198.19</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <v>27.8</v>
@@ -3818,22 +3833,22 @@
       <c r="K9">
         <v>0.23</v>
       </c>
-      <c r="L9">
-        <v>0.23</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>0.23</v>
       </c>
       <c r="O9">
         <v>0.23</v>
       </c>
       <c r="P9">
+        <v>0.23</v>
+      </c>
+      <c r="Q9">
         <v>64.04000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>29.64</v>
@@ -3859,22 +3874,22 @@
       <c r="K10">
         <v>0.11</v>
       </c>
-      <c r="L10">
-        <v>0.11</v>
-      </c>
-      <c r="N10">
+      <c r="M10">
         <v>0.11</v>
       </c>
       <c r="O10">
         <v>0.11</v>
       </c>
       <c r="P10">
+        <v>0.11</v>
+      </c>
+      <c r="Q10">
         <v>198.19</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>21.45</v>
@@ -3901,21 +3916,24 @@
         <v>1.34</v>
       </c>
       <c r="L11">
-        <v>0.14</v>
-      </c>
-      <c r="N11">
+        <v>-1.2</v>
+      </c>
+      <c r="M11">
         <v>0.14</v>
       </c>
       <c r="O11">
         <v>0.14</v>
       </c>
       <c r="P11">
+        <v>0.14</v>
+      </c>
+      <c r="Q11">
         <v>198.19</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>27.38</v>
@@ -3944,23 +3962,20 @@
       <c r="K12">
         <v>-1.79</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1.79</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-0.04</v>
-      </c>
-      <c r="N12">
-        <v>-1.75</v>
       </c>
       <c r="O12">
         <v>-1.75</v>
       </c>
       <c r="P12">
+        <v>-1.75</v>
+      </c>
+      <c r="Q12">
         <v>198.19</v>
-      </c>
-      <c r="Q12">
-        <v>-0.01</v>
       </c>
       <c r="R12">
         <v>-0.01</v>
@@ -3971,10 +3986,13 @@
       <c r="T12">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>28.88</v>
@@ -4000,22 +4018,22 @@
       <c r="K13">
         <v>0.32</v>
       </c>
-      <c r="L13">
-        <v>0.32</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
         <v>0.32</v>
       </c>
       <c r="O13">
         <v>0.32</v>
       </c>
       <c r="P13">
+        <v>0.32</v>
+      </c>
+      <c r="Q13">
         <v>198.19</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>22.18</v>
@@ -4041,22 +4059,22 @@
       <c r="K14">
         <v>0.08</v>
       </c>
-      <c r="L14">
-        <v>0.08</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
         <v>0.08</v>
       </c>
       <c r="O14">
         <v>0.08</v>
       </c>
       <c r="P14">
+        <v>0.08</v>
+      </c>
+      <c r="Q14">
         <v>198.19</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>24.09</v>
@@ -4079,22 +4097,22 @@
       <c r="K15">
         <v>0.12</v>
       </c>
-      <c r="L15">
-        <v>0.12</v>
-      </c>
-      <c r="N15">
+      <c r="M15">
         <v>0.12</v>
       </c>
       <c r="O15">
         <v>0.12</v>
       </c>
       <c r="P15">
+        <v>0.12</v>
+      </c>
+      <c r="Q15">
         <v>198.19</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>22.36</v>
@@ -4117,22 +4135,22 @@
       <c r="K16">
         <v>0.08</v>
       </c>
-      <c r="L16">
-        <v>0.08</v>
-      </c>
-      <c r="N16">
+      <c r="M16">
         <v>0.08</v>
       </c>
       <c r="O16">
         <v>0.08</v>
       </c>
       <c r="P16">
+        <v>0.08</v>
+      </c>
+      <c r="Q16">
         <v>198.19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <v>21.65</v>
@@ -4161,23 +4179,20 @@
       <c r="K17">
         <v>-1.67</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-1.67</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>-1.67</v>
       </c>
       <c r="P17">
+        <v>-1.67</v>
+      </c>
+      <c r="Q17">
         <v>198.19</v>
-      </c>
-      <c r="Q17">
-        <v>-0.01</v>
       </c>
       <c r="R17">
         <v>-0.01</v>
@@ -4188,10 +4203,13 @@
       <c r="T17">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <v>5.92</v>
@@ -4214,22 +4232,22 @@
       <c r="K18">
         <v>0.05</v>
       </c>
-      <c r="L18">
-        <v>0.05</v>
-      </c>
-      <c r="N18">
+      <c r="M18">
         <v>0.05</v>
       </c>
       <c r="O18">
         <v>0.05</v>
       </c>
       <c r="P18">
+        <v>0.05</v>
+      </c>
+      <c r="Q18">
         <v>198.19</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>4.19</v>
@@ -4255,22 +4273,22 @@
       <c r="K19">
         <v>0.04</v>
       </c>
-      <c r="L19">
-        <v>0.04</v>
-      </c>
-      <c r="N19">
+      <c r="M19">
         <v>0.04</v>
       </c>
       <c r="O19">
         <v>0.04</v>
       </c>
       <c r="P19">
+        <v>0.04</v>
+      </c>
+      <c r="Q19">
         <v>198.19</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>11.71</v>
@@ -4296,22 +4314,22 @@
       <c r="K20">
         <v>0.04</v>
       </c>
-      <c r="L20">
-        <v>0.04</v>
-      </c>
-      <c r="N20">
+      <c r="M20">
         <v>0.04</v>
       </c>
       <c r="O20">
         <v>0.04</v>
       </c>
       <c r="P20">
+        <v>0.04</v>
+      </c>
+      <c r="Q20">
         <v>198.19</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>21.29</v>
@@ -4340,25 +4358,25 @@
       <c r="K21">
         <v>-0.06</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.06</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>-0.06</v>
       </c>
       <c r="P21">
+        <v>-0.06</v>
+      </c>
+      <c r="Q21">
         <v>198.19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>7.41</v>
@@ -4387,25 +4405,25 @@
       <c r="K22">
         <v>0.04</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.04</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.05</v>
-      </c>
-      <c r="N22">
-        <v>-0.01</v>
       </c>
       <c r="O22">
         <v>-0.01</v>
       </c>
       <c r="P22">
+        <v>-0.01</v>
+      </c>
+      <c r="Q22">
         <v>198.19</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23">
         <v>0.36</v>
@@ -4428,20 +4446,17 @@
       <c r="K23">
         <v>0.01</v>
       </c>
-      <c r="L23">
-        <v>0.01</v>
-      </c>
-      <c r="N23">
+      <c r="M23">
         <v>0.01</v>
       </c>
       <c r="O23">
         <v>0.01</v>
       </c>
       <c r="P23">
+        <v>0.01</v>
+      </c>
+      <c r="Q23">
         <v>198.19</v>
-      </c>
-      <c r="Q23">
-        <v>0.01</v>
       </c>
       <c r="R23">
         <v>0.01</v>
@@ -4452,10 +4467,13 @@
       <c r="T23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24">
         <v>5.05</v>
@@ -4478,20 +4496,17 @@
       <c r="K24">
         <v>0.16</v>
       </c>
-      <c r="L24">
-        <v>0.16</v>
-      </c>
-      <c r="N24">
+      <c r="M24">
         <v>0.16</v>
       </c>
       <c r="O24">
         <v>0.16</v>
       </c>
       <c r="P24">
+        <v>0.16</v>
+      </c>
+      <c r="Q24">
         <v>198.19</v>
-      </c>
-      <c r="Q24">
-        <v>0.01</v>
       </c>
       <c r="R24">
         <v>0.01</v>
@@ -4502,10 +4517,13 @@
       <c r="T24">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25">
         <v>4.99</v>
@@ -4528,28 +4546,28 @@
       <c r="K25">
         <v>0.48</v>
       </c>
-      <c r="L25">
-        <v>0.48</v>
-      </c>
-      <c r="N25">
+      <c r="M25">
         <v>0.48</v>
       </c>
       <c r="O25">
         <v>0.48</v>
       </c>
       <c r="P25">
+        <v>0.48</v>
+      </c>
+      <c r="Q25">
         <v>198.19</v>
-      </c>
-      <c r="S25">
-        <v>0.02</v>
       </c>
       <c r="T25">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>5.19</v>
@@ -4575,22 +4593,22 @@
       <c r="K26">
         <v>0.04</v>
       </c>
-      <c r="L26">
-        <v>0.04</v>
-      </c>
-      <c r="N26">
+      <c r="M26">
         <v>0.04</v>
       </c>
       <c r="O26">
         <v>0.04</v>
       </c>
       <c r="P26">
+        <v>0.04</v>
+      </c>
+      <c r="Q26">
         <v>198.19</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>3.04</v>
@@ -4620,22 +4638,22 @@
         <v>0.1</v>
       </c>
       <c r="L27">
+        <v>-21.5</v>
+      </c>
+      <c r="M27">
         <v>-21.4</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.2</v>
-      </c>
-      <c r="N27">
-        <v>-21.6</v>
       </c>
       <c r="O27">
         <v>-21.6</v>
       </c>
       <c r="P27">
+        <v>-21.6</v>
+      </c>
+      <c r="Q27">
         <v>198.19</v>
-      </c>
-      <c r="Q27">
-        <v>-1.09</v>
       </c>
       <c r="R27">
         <v>-1.09</v>
@@ -4646,10 +4664,13 @@
       <c r="T27">
         <v>-1.09</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28">
         <v>0.03</v>
@@ -4673,19 +4694,19 @@
         <v>-0.01</v>
       </c>
       <c r="L28">
-        <v>-5.67</v>
-      </c>
-      <c r="N28">
+        <v>-5.66</v>
+      </c>
+      <c r="M28">
         <v>-5.67</v>
       </c>
       <c r="O28">
         <v>-5.67</v>
       </c>
       <c r="P28">
+        <v>-5.67</v>
+      </c>
+      <c r="Q28">
         <v>198.19</v>
-      </c>
-      <c r="Q28">
-        <v>-0.29</v>
       </c>
       <c r="R28">
         <v>-0.29</v>
@@ -4696,10 +4717,13 @@
       <c r="T28">
         <v>-0.29</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D29">
         <v>0.01</v>
@@ -4717,19 +4741,19 @@
         <v>-0.04</v>
       </c>
       <c r="L29">
-        <v>-3.38</v>
-      </c>
-      <c r="N29">
+        <v>-3.34</v>
+      </c>
+      <c r="M29">
         <v>-3.38</v>
       </c>
       <c r="O29">
         <v>-3.38</v>
       </c>
       <c r="P29">
+        <v>-3.38</v>
+      </c>
+      <c r="Q29">
         <v>198.19</v>
-      </c>
-      <c r="Q29">
-        <v>-0.17</v>
       </c>
       <c r="R29">
         <v>-0.17</v>
@@ -4740,10 +4764,13 @@
       <c r="T29">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4770,19 +4797,19 @@
         <v>-0.01</v>
       </c>
       <c r="L30">
-        <v>-1.59</v>
-      </c>
-      <c r="N30">
+        <v>-1.58</v>
+      </c>
+      <c r="M30">
         <v>-1.59</v>
       </c>
       <c r="O30">
         <v>-1.59</v>
       </c>
       <c r="P30">
+        <v>-1.59</v>
+      </c>
+      <c r="Q30">
         <v>198.19</v>
-      </c>
-      <c r="Q30">
-        <v>-0.08</v>
       </c>
       <c r="R30">
         <v>-0.08</v>
@@ -4793,10 +4820,13 @@
       <c r="T30">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31">
         <v>0.04</v>
@@ -4820,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-1.46</v>
-      </c>
-      <c r="N31">
+        <v>-1.47</v>
+      </c>
+      <c r="M31">
         <v>-1.46</v>
       </c>
       <c r="O31">
         <v>-1.46</v>
       </c>
       <c r="P31">
+        <v>-1.46</v>
+      </c>
+      <c r="Q31">
         <v>198.19</v>
-      </c>
-      <c r="Q31">
-        <v>-0.07000000000000001</v>
       </c>
       <c r="R31">
         <v>-0.07000000000000001</v>
@@ -4843,10 +4873,13 @@
       <c r="T31">
         <v>-0.07000000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32">
         <v>0.04</v>
@@ -4873,19 +4906,19 @@
         <v>-0.03</v>
       </c>
       <c r="L32">
-        <v>-33.36</v>
-      </c>
-      <c r="N32">
+        <v>-33.34</v>
+      </c>
+      <c r="M32">
         <v>-33.36</v>
       </c>
       <c r="O32">
         <v>-33.36</v>
       </c>
       <c r="P32">
+        <v>-33.36</v>
+      </c>
+      <c r="Q32">
         <v>198.19</v>
-      </c>
-      <c r="Q32">
-        <v>-3.67</v>
       </c>
       <c r="R32">
         <v>-3.67</v>
@@ -4896,10 +4929,13 @@
       <c r="T32">
         <v>-3.67</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>-3.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33">
         <v>1.18</v>
@@ -4925,28 +4961,28 @@
       <c r="K33">
         <v>0.05</v>
       </c>
-      <c r="L33">
-        <v>0.05</v>
-      </c>
-      <c r="N33">
+      <c r="M33">
         <v>0.05</v>
       </c>
       <c r="O33">
         <v>0.05</v>
       </c>
       <c r="P33">
+        <v>0.05</v>
+      </c>
+      <c r="Q33">
         <v>198.19</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34">
         <v>4.87</v>
@@ -4975,20 +5011,17 @@
       <c r="K34">
         <v>0.16</v>
       </c>
-      <c r="L34">
-        <v>0.16</v>
-      </c>
-      <c r="N34">
+      <c r="M34">
         <v>0.16</v>
       </c>
       <c r="O34">
         <v>0.16</v>
       </c>
       <c r="P34">
+        <v>0.16</v>
+      </c>
+      <c r="Q34">
         <v>198.19</v>
-      </c>
-      <c r="Q34">
-        <v>0.01</v>
       </c>
       <c r="R34">
         <v>0.01</v>
@@ -4999,10 +5032,13 @@
       <c r="T34">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>0.01</v>
@@ -5022,28 +5058,28 @@
       <c r="K35">
         <v>-0.05</v>
       </c>
-      <c r="L35">
-        <v>-0.05</v>
-      </c>
-      <c r="N35">
+      <c r="M35">
         <v>-0.05</v>
       </c>
       <c r="O35">
         <v>-0.05</v>
       </c>
       <c r="P35">
+        <v>-0.05</v>
+      </c>
+      <c r="Q35">
         <v>198.19</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5073,19 +5109,19 @@
         <v>-0.03</v>
       </c>
       <c r="L36">
-        <v>-21.14</v>
-      </c>
-      <c r="N36">
+        <v>-21.1</v>
+      </c>
+      <c r="M36">
         <v>-21.14</v>
       </c>
       <c r="O36">
         <v>-21.14</v>
       </c>
       <c r="P36">
+        <v>-21.14</v>
+      </c>
+      <c r="Q36">
         <v>198.19</v>
-      </c>
-      <c r="Q36">
-        <v>-1.07</v>
       </c>
       <c r="R36">
         <v>-1.07</v>
@@ -5096,10 +5132,13 @@
       <c r="T36">
         <v>-1.07</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37">
         <v>5.46</v>
@@ -5126,19 +5165,19 @@
         <v>-0.78</v>
       </c>
       <c r="L37">
-        <v>101.05</v>
-      </c>
-      <c r="N37">
+        <v>101.82</v>
+      </c>
+      <c r="M37">
         <v>101.05</v>
       </c>
       <c r="O37">
         <v>101.05</v>
       </c>
       <c r="P37">
+        <v>101.05</v>
+      </c>
+      <c r="Q37">
         <v>198.19</v>
-      </c>
-      <c r="Q37">
-        <v>5.1</v>
       </c>
       <c r="R37">
         <v>5.1</v>
@@ -5149,10 +5188,13 @@
       <c r="T37">
         <v>5.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <v>3.67</v>
@@ -5178,28 +5220,28 @@
       <c r="K38">
         <v>0.08</v>
       </c>
-      <c r="L38">
-        <v>0.08</v>
-      </c>
-      <c r="N38">
+      <c r="M38">
         <v>0.08</v>
       </c>
       <c r="O38">
         <v>0.08</v>
       </c>
       <c r="P38">
+        <v>0.08</v>
+      </c>
+      <c r="Q38">
         <v>198.19</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39">
         <v>1.48</v>
@@ -5222,28 +5264,28 @@
       <c r="K39">
         <v>0.04</v>
       </c>
-      <c r="L39">
-        <v>0.04</v>
-      </c>
-      <c r="N39">
+      <c r="M39">
         <v>0.04</v>
       </c>
       <c r="O39">
         <v>0.04</v>
       </c>
       <c r="P39">
+        <v>0.04</v>
+      </c>
+      <c r="Q39">
         <v>198.19</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40">
         <v>24.8</v>
@@ -5266,20 +5308,17 @@
       <c r="K40">
         <v>0.35</v>
       </c>
-      <c r="L40">
-        <v>0.35</v>
-      </c>
-      <c r="N40">
+      <c r="M40">
         <v>0.35</v>
       </c>
       <c r="O40">
         <v>0.35</v>
       </c>
       <c r="P40">
+        <v>0.35</v>
+      </c>
+      <c r="Q40">
         <v>198.19</v>
-      </c>
-      <c r="Q40">
-        <v>0.02</v>
       </c>
       <c r="R40">
         <v>0.02</v>
@@ -5290,10 +5329,13 @@
       <c r="T40">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41">
         <v>2.56</v>
@@ -5319,28 +5361,28 @@
       <c r="K41">
         <v>0.18</v>
       </c>
-      <c r="L41">
-        <v>0.18</v>
-      </c>
-      <c r="N41">
+      <c r="M41">
         <v>0.18</v>
       </c>
       <c r="O41">
         <v>0.18</v>
       </c>
       <c r="P41">
+        <v>0.18</v>
+      </c>
+      <c r="Q41">
         <v>198.19</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42">
         <v>0.58</v>
@@ -5363,31 +5405,31 @@
       <c r="K42">
         <v>0.03</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.03</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.1</v>
-      </c>
-      <c r="N42">
-        <v>-0.07000000000000001</v>
       </c>
       <c r="O42">
         <v>-0.07000000000000001</v>
       </c>
       <c r="P42">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Q42">
         <v>198.19</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43">
         <v>3.62</v>
@@ -5413,28 +5455,28 @@
       <c r="K43">
         <v>0.14</v>
       </c>
-      <c r="L43">
-        <v>0.14</v>
-      </c>
-      <c r="N43">
+      <c r="M43">
         <v>0.14</v>
       </c>
       <c r="O43">
         <v>0.14</v>
       </c>
       <c r="P43">
+        <v>0.14</v>
+      </c>
+      <c r="Q43">
         <v>198.19</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44">
         <v>16.05</v>
@@ -5460,20 +5502,17 @@
       <c r="K44">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L44">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N44">
+      <c r="M44">
         <v>0.6899999999999999</v>
       </c>
       <c r="O44">
         <v>0.6899999999999999</v>
       </c>
       <c r="P44">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q44">
         <v>198.19</v>
-      </c>
-      <c r="Q44">
-        <v>0.02</v>
       </c>
       <c r="R44">
         <v>0.02</v>
@@ -5484,10 +5523,13 @@
       <c r="T44">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45">
         <v>20.32</v>
@@ -5513,20 +5555,17 @@
       <c r="K45">
         <v>1.94</v>
       </c>
-      <c r="L45">
-        <v>1.94</v>
-      </c>
-      <c r="N45">
+      <c r="M45">
         <v>1.94</v>
       </c>
       <c r="O45">
         <v>1.94</v>
       </c>
       <c r="P45">
+        <v>1.94</v>
+      </c>
+      <c r="Q45">
         <v>198.19</v>
-      </c>
-      <c r="Q45">
-        <v>0.05</v>
       </c>
       <c r="R45">
         <v>0.05</v>
@@ -5537,10 +5576,13 @@
       <c r="T45">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46">
         <v>4.23</v>
@@ -5566,28 +5608,28 @@
       <c r="K46">
         <v>0.4</v>
       </c>
-      <c r="L46">
-        <v>0.4</v>
-      </c>
-      <c r="N46">
+      <c r="M46">
         <v>0.4</v>
       </c>
       <c r="O46">
         <v>0.4</v>
       </c>
       <c r="P46">
+        <v>0.4</v>
+      </c>
+      <c r="Q46">
         <v>198.19</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47">
         <v>47.06</v>
@@ -5616,23 +5658,20 @@
       <c r="K47">
         <v>1.22</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>1.22</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.15</v>
-      </c>
-      <c r="N47">
-        <v>1.07</v>
       </c>
       <c r="O47">
         <v>1.07</v>
       </c>
       <c r="P47">
+        <v>1.07</v>
+      </c>
+      <c r="Q47">
         <v>198.19</v>
-      </c>
-      <c r="Q47">
-        <v>0.03</v>
       </c>
       <c r="R47">
         <v>0.03</v>
@@ -5641,6 +5680,9 @@
         <v>0.03</v>
       </c>
       <c r="T47">
+        <v>0.03</v>
+      </c>
+      <c r="U47">
         <v>0.03</v>
       </c>
     </row>
@@ -5659,114 +5701,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:18">
